--- a/data7.xlsx
+++ b/data7.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>hanadi joud</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>abdallah</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAsJCQcJCQcJCQkJCwkJCQkJCQsJCwsMCwsLDA0QDBEODQ4MEhkSJRodJR0ZHxwpKRYlNzU2GioyPi0pMBk7IRP/2wBDAQcICAsJCxULCxUsHRkdLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCz/wAARCAC3AREDASIAAhEBAxEB/8QAGwAAAgMBAQEAAAAAAAAAAAAAAAECAwUGBAf/xABCEAABBAEDAgQDBQUECQUBAAABAAIDEQQFEiExUQYTIkEUYXEyUoGRoRUjQrHBktHh8RYzU1RjcoKi8AckQ2Jksv/EABoBAAIDAQEAAAAAAAAAAAAAAAABAgMEBQb/xAAlEQACAgEDBAMBAQEAAAAAAAAAAQIRAwQSIRMxQVEFFCIyQlL/2gAMAwEAAhEDEQA/AKhfdPnugIXorOFQxfdHPdFIpKwoOe6fPdFJ11RYULnunz3QnSVhQc90fiik0WFCv5o/FPhFIsKDnujnuhNFjoXPdHPdCKRYqDnujnuhFIsdBz3Rz3RSKRYUHPdHPdNFIsBc90c906RSLHQue6Oe6dIpFhRHnujlSopUiwoXKXPdSSpFhQue6XPdSpCdhRHnukpUlSLChc90KVIRYqIcJoRShZKhppJosKBPhAQiwoE0JpWFCT4QhIKDhCdITChAITQix0JCkikWOiKE0IsVBQRQQnSVhQqCE0IsKEnwhOqaXHoFCeSMFuk6RZDG5uooVBFdF5snJdFEXtA5IYw0SA53ufp9Fmlo2B1ne4291+qzxW5c5/Jw/wAq0b18fKv0+TaIRQWNJk5GGQGzb6BtsxLr43e/969WBqePnb46EeTG3c+Oz6m9N7Cfbv2/VaMGsx5nS7lGbSTxcvlHvoJUmhbLMtESEUpUkixUKglSkhOwojSFJCdgV+yEeyaiOgQhNKx0CaAmiwBCEx7JCoEITRYwQhCVhQITQnYCQmhFgJCaErChITQiwoEIToIsdDY3caVkrGsgeGu9UjmMDiDYDib/AJfqqTK2Ick8hxAHuWgGv5qjIzIzjSfej8qSgRyQ/af5rzfyWWUsm3wju6HGo49y7s82rBkTQeNpc4taXAkAGgaWY3KbfYAN61X5KOpzukdNufYEzto9qJ+az2vJaXAcCrPY9rWSK/Bpk/0aE537+bsEWBZodbI9+yxpsh+DNiZsZAfDI14HQyMPpewn5jgr0vn8twlF7h6upAPFdAsLLndO4MsbA66+Z6qzT7t25eCOWnGmfT43skZHJGbZIxsjD3a4bgVJZ2hOc/SNKLuox2t/BjnMH8lpL1EZWkzzrjToSE0cqdiEkmhG4KEhNCe4KKFJV2UwUrAmhQtO0rAsCLUAU76pWFE0BQtO0WFE01C0bkh0TQo2i0BRJCjuRuQFE0KFo3ICiaFHcjcgKJIUNyLQFE0Wo7kbkAKaJk8bo3ki6ILatrh0cLXOZWPq+GHs8mTKgcX3LiguPluFHfF9oEEA8WuywsL4hpleSI7LWAcbq6knt7L0z6ZhzxSwSwsdDJQLCTyOvBHPC5WseKbqSto6OmWSKtPg+Y5GYJY7J9ewNeDwdzAADz+CzjntYDHR4NEtN/jYXeZHgfTiS7FnzcYc7Wb2zRf2ZgT/ANyw8rwXqgLjBqGM8UeZIDCe/wD8YcFghGC4NkpN8nMSZU8rSxo2g8FxsE/JGHh5ObOzFxxulkPqJHpib7yPPsB/h7rYPhHxGxzXbsKUCiGmV21180Q5oWzgnWtNaY8nQomQCt82lGIusfxPi3lzj+IWvFGDdN0VZJyStI2seCPGgx8eO9kEUcTL6kMAFn69VcqYp4p42yxPDmO6GiORwQQ4Agj3BCkZGt6lddNVwcpptliF5JMyNvuF4pdSaLojj5qEsiirJRxuRqukY3qV535sTPcLAydU9JorIlz53nglUvVLwW/XZ2X7Ri7hC4n4qf7x/NCj9kOgdxuQHKncnuXQMpdaLVQcjckMutPd1VIcnuCQF1o3KrcnuSGW7kWqrCe5AFu5G5VbkbkAW7kblVuRaALdyNyqtFoAt3I3Kq0WgC3cjcqrRuQBbuRuVW5G5AGpjaqzEh8uVpMbSSHtaXbA42dwHNK2LW9Pm9UeRGQKstcCASa5pY25ebI0zHzGSvGPi+aAT5skZLm8df3bmuP5+652o0y/tOjbhzP+Wjq/2liE8yR0exBu+FCXMxC5w3xtIO0jcyuOL4PRfNzo2otD3ty5GtDgC2SB1DtRDv8AJUSQ69jtY9j2zNedzGwyTMkoW0Ha+vmBRKwdN+DZvR9DdkQjd+8YeLFCy4XXT2/FZWoavhY0Tg6Zt2QA3l3HsKXBSaplglkrMprh9prppGkfUEWjAlwsrMghyY5RHIQxhjk58w9A81dHpxSFjku6ByTOk0bNyJ36tkPBbBJNF5TfYPDSHVfy22rMzUNl0UOLY2CGFgZHGKa1ooALNmikeboq77DS2or6Cu2VPzZZCeSAvM+V/JLirXRFvNcLzSA304UN19x7aXBB0hd9UmjoSo1SlfB5UyJP8kKuyhAHVjJb3VgyGd1y4yJR/EVMZUw/iK7raOMpo6cTs+8n5zPvLmfjJh7o+Nm7pWPqI6cTs7p+fH94LmPjZu6PjZu6QdRHUefH94JieP7wXLfGzd0fGzd0C6iOq8+P7yl50f3guU+OnT+PmSH1InVedH94JGeMfxLlvj5kjmzFA+pE6n4mPul8TH95cr8XOf4kfFT/AHk6I9VHVfFR/eR8TH95cr8VP94pfFTfeKKF1UdX8Uzuj4qPuuV+Km+8UviZ/vFA+qjrBkxn3T86P7y5QZcw91P42ZDQ1lj5Op86P7wT82P7y5b46bt+qkM6bslTDqwOmM0Y9+tDgWSTwAAFvY/hfVMnHmmfkOw8gwv+FhsEukIOz4rggNvqACf5Lh9M1ZmJqGm5eSzdBjZUcso6+htjdR7XY+i+sQ+ItFmAMeZAbax9F20lrhbTtfTqP0XK+QzzxpRS4Z0dHGOW5LwfPcrR/wD1DjMjZNP89tel+Ll4xaCK9TQ4tPyrasKRniqGRrH6Tqoe2g3y8QybQG7QGFjS1fXZ/EGksMbfiYnOfe1sbt4FAklxbYAHNk9vmsbN8U6cwOEWQ1z+K2iQ0b9to+q461Uu1HS6FnzabS/E2aG+ZomsSbfTGZoXt2t+W5oVeNhZGk5LJ9V0vMxmHjHle0mKJx4JeAOvbnjsfbsM/wAVukbKzGZkOttBzj5ZaS2htJJI6m+OeO3PMahrGZqJbG+TZCA0GBrnO3FoHqkcfUSTyVohmlP80QljUFubNR74doII55v5KgSROdtvhYzp59oYOA0Bo69AoNkna7dd/muktE6swPXwujdfHC4FZ80MXPC85y5+g6fVQdNK4FNaORF66BFzGXSgI2klP94Uesf5Kz6jK/uwDykJ29Cf1Jew+7AW1G1TSW45G5kdqVBSTASDcRoILVPanSKFuK9qe0KykwPkpbRORVspKlaQFEhRaoakVgKVBFFFFIdgAFLaEg0qVFNMTZCgnXyCe0o2lAWLaE9oRTk6PZCYrFtCCApbSjaUxWJMBPYVMMcmiLZv+EtPxczU3uyGtezDxzksY4AtMpeGNc4Hj08kfOuy7LN0DSdSIlyYoZXD0+a8U9rfapGEPrtyvnumZ82mZbMljN7djopWdN8bqsA9+AV1w8S6C+5S+ZkmwMc1wPF+wj3bSfwXF+QjNT3eDv8Axs8bx7P9FU3g/D9Riys+BrXfw5by1p9q81r/AK9V4ZfC2OwhjtX1Ntiw3zodxBNXQjB/RWZHiTDcdjHahTjbnSOaABf8IBPT2H96xM3VWSsIi+MLrLhJLOCRxXHP4+65qdnVdey+Xwxo9gS6vqDnO2gXLEQSRYA9JJJ9qH+AfDDIY3+VqDo6Li1uXHjbQxoJuV7XMIPB9z+ixcXLbBMJZnvL42O27pBITIabZcXcAc9BfK0Ha+wtZFBjeY9jWiJvoeRt5sAkm1ojPJB/hlU8eOcf2jwvx5I2se4NdE8nypojcUoHNsJAP5hQ2BWz5GpalkRZGY3y2xA+WzndyNoBH+SRBC72nnKcLyLk8zq8cMeSsb4KixR2q4C0yxaODLbKQKToKZbSiixCoITQnYiqiggr0bG/NG0BUF9MoDSij2KtNBRsIsKYmglWBgQC1T3BPcg2AGNSeOOKQXKtzvmlvHtIO6pUndlWNHdLdYlFkBGSrPK6K0BvZS4TtD2eytsIPVMwj2U2mlZYI907Q+mjziIe6s8llKR2hLdfRFoNiIiFiDEwJgu7KXJ9kbh7EedwaPZK23yF6PLv2UTCUrZHpkWlnyVoLD2VRgf2KAyQexUd7Q1A6rRvDUOXjxZ+oPcIZW+Zj40e5hkjsgSSvHNGuAK+vNLoZtH0KSGPGk03COPG5zmt+Hb6HUBwftWfr/hz2neJmY2Fh4uQHtkx2iMPILw6KIANawA9T0J+XzXudr2DTX/Hx3KQ5sTXBz8d1/YI4Btvy63yffhajJkc2pWej0uLEoJwCXw94W3BzdGxmfxgu8wBzK6Bu8Nse/HH42PHLoPhJpc0aVCHtAe65MgC+QWkNkPT5HqPzjLrAkZEwzujad059bHOYfUwtffp42+r6joVly6ziOAlsby2Pc5m4l7+SDsPAr6n8+lKcjU0jR/0c8Ixt/fadvp2w1PkxlhJobtriP8Az5LPdoPhyR4bHgzRylpIbiT5DmWOSWySnbdVdkfaXidrGTKQ0ictH2nSPLq9LtwFHqeKteZ+t57AfLLGF8Jic6UgekinFouhxxfX+k05eyDS9FuoYjdKt0ec+aO6bBlhrpHDm6lj6V8xSqifHkRMkZe119eoINEGlkyy5OfKPLY6V9gMbEymRtqtoJFAfitvCw340DWSG5HOdI+uQC6vSD8l1dLKb4kcrV48a5j3IbACjheoxKBhcei3HN2lBaCo+T2Xp8p4S2uCBOCKPKKF6KKExbEeYNPZPYSrvLKmG91Eu2njMRKj5C0QwfJBjFeyi4j2mb5Lh0/RPynDuvdtA7J+WD7KOwNp4thUfJsr3GL5IbGeyNoUeRsAVhjA6L0OaR0UCCUNUNRKC0hApXFhKQhJKjTCiHpUgVPyCl5DkuR0QJCkNqflOCXlP9k7YUTAapABVtjdwrNrlLcKgJAS3t90FhUfJJKW5jotDmFejBwZtRyo8WAtaXAvkkd9mKJpALz+YAHzXkELgtrw7lR4WRmCQhvxEEbGuPdjy7bfzv8ARRyTkotonigpTSZv4+k4uCAMRp3AN3zvA857x7h3WvyHyXN6l4UmlyMjJwc6XHklkklkimYJIdzjucGAcgE/IrqX6jE5xcHEEVfTn27dEDPxXWNzPlfQ9guQ27tnaiklSPncnh7xWz7DcCcDkbSwH39pGtVY8PeLJDtdJiRdDy9o5HT/AFbCvoU+XC3zGQuhfP5LpGtJ9IIAdZdftzf/AIV5pdTwKA3t3N6mX0/OqNqG9J1SJ7HXc5GPwbnS0cnVDzbniON5APv6nuH/APK9uP4N0iMjzJsx8v8AC4ysjjH9hu4fmtR+u4oa4gh1D1Dix9Af6LwSeJsFrmOa9rvkOeeo/pastkdqL36Zh44eG+aQyz68iZ5odhI4/XoskZELsifGBt8TWv592u/u/wDOqq1PxE2QOELS5z63Ofw1pAIoX19vZeHTcecST5k4cHzDawP4cQSHFxHtfFLXp8k7q7Rk1OOG265NdTHRUhxVlml0kzmUS9KiQ1RJKiS5PcKiVNQo8oS3Coq3AKJeEqKYb3VW62WVRJr1ZuBUAxWtYVJWxEPZMfVSc0BQsBSET4UhSqL2oDwiwLCAVVx2UvNFJbmlQckSoVhWMc0KHpKg4gJbqCj07mlMbf0Xna9T8xSUrFRYaS2AqvzArBI1NOxD2gI2hNnmTSNihjfJI69rImOe91daa0WnMzIxyG5EM0Lj0E0b2X9NwQ2kOnVlT6HQKAcQeiDID7o3N7pWgLg8e6ZLTQqy47Q0AkuJ6AAc2vMXN7rs/BWNg7MzUpg1+THMcbH3UfJjEbXvc2/dxIF9h8+a8uVY4tssxY3kkooxsbwxrkwa+OKXFYQSBPO5pF9oxucP0Xof4R8QXbM7EcCKd5oy7I7U0ruMrWNOw2udNJGwAE8ubZIF00WufzfGuhRbhFM6V/pIDI9wHcenj9SuLkybndHZx43FVbMIeDdeLg92dpwLeWlsWa8j2v1SBVyeD8415mr4wd2+CkI44B5nv9F6pfHMVU2CUgud637WcHjjlZeR4zml3BkTL200lw9+pNKtNltGdqHhvVoNxgycDINdNkkUhrsHlzf+5czO3U4Hvjmj8p924FgHX3B7fQrpp9cz5uA4MJq38Od7cc8D8lnzTPmZ5cr943bhdEg17ccK2E15IOL8Hj0/UI8cgTYsL/8AjMY0Tt/6ncH9F0mmxu1qR8envie9jd72SyNjka3/AJTyfnVrlpcdoaTv2tJ5uhx2JUY3nEezIx5/KnhIkhkidtcx45BaQt0cyrgxTwW7Z3Z0HXYwScQuoWfKkY8/ldrPLjbm7HbmmnDabaRxzSj4p8QZ00OjNizXxPmxWZM8eJJtY5z2j1F8Z77gAqtJ1/Gw9FIy8l8uQcucxwtsyuY+nW57uKu+6I6me3dQT0sN1JlhkapQwZeWSMaCSQNNOcBTAe248WufzdezMt1QQwwCzRiZukI7Oe/+4L06f4i1PEaY55pHRCnxsjDbLwR6XhtCiLs9VZLLNxuK5KY6dbqb4Oh/Y+s/7sf7TULO/wBM5/8Adz/af/ehUdXUf8l/18PssLQFAkBWSMzIQ05uDm4hcaacmLbGf+sEgfjS0I9FlcHeZLtkHPlxt3iq+/dH8FrnmxxVtmSOnySdJGYHFSEhC0JNFzI6LSDdUHgsJJ6DnhdDp3g+FkTJ9Vkt59Xw8TyI2Ds57eSUnqcajdkvq5Lpo4t8h9/5qFud0BP0BP8AJfSXaNoMADo8aFhZ/wAMOPHTl1lejyImsiEbGgv9QOxvAA6UsGT5FLtE1w+Pb7yPlxa8clrx9WuH9FdBhZ2UCYIXuYKBlcNsYs19o/0BX02OCG/Xt9R9ILQeCPmrHwxFvDWU11C+KAq6pUv5BtcRLF8ek+ZHz9ugSxk/GZBiDRucyJlyFvFFu89D7Gvn7L3s0XSIoJMjI88MY4hrZpXMdIAaJtlNBHH9y62XAxXuc1sQB2gF1D137NWPkwQYU7dQy2PyY4GyyDHdRYZdtNeQ4cltcf4Krr5Z+TQtNhh4OWfib2F2Jp2oSNre10DJnte3p6S8bbPtz7LOdFlsYx2Ti5OM48ObkRPYQ66q3CvouqzPGGTHHFlsixZ8V3rMbNwf5Y+1T74cOatbUuTiTYkOW1wdiZMTJY9zAXObKGuaTuNd7taI58mPiXJRk02PJzHg+b8hben+GtX1CCLJD8eCKUbofPLzI9h6P2MHAPtZ/Be3D0rT8x8+VNE1sDpW+REwu27Rw4OjB2/Oif5rQzZBhw5DmSyskEYEEbXehxrhr/lQ9lPJqvECrHo/OTsZUvhHW4X1LJiMhbe+dz37W+/DHAEn8VdF4dwjQOXmy8cyRwsiivs0uDj+q1tEztI1DCgz98Yne1/xEMs+90UkZLajje4n2sEhRztdw4vLgYHzZU7vLghxmiWSS64awcX8zSoeoy3Vl8dLi9D05mLoUWSIQ6SWd9yPlIDzG1oAjBaOg5J+qqz9UxsmLZlOgdG4AFhaHEDrYvp8iqp9I8QZ74JJ34+FE15e6Jm6aZwqg1zmlrex9+n5+OTwhE7mbO1F3IdUZiiB+dBpVDlKUtzZojGMY7UjCyxpUeVp2P5hxnZX+utxyBBucQ0uo/S/qt3H8LRTOGyTOlaAfVG2FjXurgNc4EV+JUY/B2jslZM5+c97HNfck925p3C/StqPCx49v2zGLAjLnbG/Ntcj8CtHXaqmZ/rY27ozT4YAd5ceHkPJ+y6aYA+wJO19UPegtnC8NQYcU8TMnUayGsM7WTCOPc3i2UNw7fa/wtbnvx/svbQZHGGuN01g2irN/U+6ow9byMrWWYk2Tix4wxi9kRts805O1rbPFAWeqreScuLLVijHlIbvCXhskOnxpZXEEf8AvM7JffcUXhv6LzZOg+A4WuEuPgxcURHPIx19ra+1reICDpWoE+2O8tqxbug56r594Yf4ZyMiPDkxsjKznMkk+Jy9roS5nLmxxchoHsTZKNsmrQ7V0z0Y7PBEefm40OBiyRMh85uTkOdOAQacypifltoLJ1TR3ai7doej5RLHOcZoMZ8OO8F32BvDWmutj+truWYuLjSedjQQQyixccTA8AfMBN+bnmSCR873xxyslkjdt/esab2FxF0lHI07RJwtUfPMXwf47yASzTJGMAsOnkhja7/l3vs/gq3eF/GrcvGxJNNmY/IfsZIdrscAcl75WEtAH1/uX2vE1nEy7EfDw0l0cgpzB09vb6L0vjjlDTtB3OLieeOOq02vCM9NdzmdL8C6Fp0cMlnLzxGN2TlNbKwSHkmKB9xtHbgn5rz6jinGk8zPxsfJe123EmELP3MZA6tI69z0WrkahkaXPGydr/hJHNDMkbdsZcQA2YXddj+dKzMycMwSGUNdvPDRz5g/BVO/JYjkMnC0bUow12NCCBtaS1m5tmzRAtYcvg/GkmZ5c0sUIcA4AtlDW++0PP8AVbkWHj40ksrPOe6R5kDZHWyMk36GjhTc6V7ibBv7QAN0kpuPYl01LuZsXhbQmGnNyJWj/b5BaDX/ANYAwKjK8N6K6zDFNCR/sJXkV9JNy2HPLW01w6+45VLpCAfUSDV+3KOrL2PpRXgw/wDR3T//ANX9r/BC2PNb3P5lCfUl7Dpx9HWDw5+1ayc+aRkEjS848Lqvcbpz2n6dl4tT1DR9IONisZI2DGZxGxt8DgAEoQqly6G+x59VnjzNIiy4A7bKBsbe0g/VV6bquqyacMTIEYEQAbKHOfI4XYskoQrU/wAlfkugypsmQx+dIHgjZdkWvQzB1xkj7zRsabhtoJaDyQbQhKaTVUSg2ubPQ12owlvmzMk2G+WAEd6IVj9RawHe09zt9z3QhVdOPotUmQ/aryTI1oJAIF8VY7BYWs6u98UzQyiGPquQSRXN+yEK+EVdFU35OE+MZi4xe+HzY3TMLYnO/duIdZDwOaNLqW+IxquO2SKPygw7HxV6WEAUGkcEIQpzScbZWm7o0NHwtaknjycfyhiSODckTP8Ats62xrb5C1s/w/Lmxvjdlvjje5ol8tjS4sv1Na48ixxwhCofey5djx6n4b0eTyRjadjYjImtax2KXRzih9rzQdxP1tHhvRcfStXzZpsl+VJlYzG4j523LFRuVrndORt5QhE26BLk6jOzIMOKaaQEsjaXbQOq4XK8U6k+QvgETY73CNzDy3sShCemipJtorzScao9Om+JcbUHGCaJ8c97SWi2/mtLKE+243HcAdtmqNcFCEs0VGVIlCTatmFmQ607EeWfDOed173PsCqFELm8DE1LKmdPNkNx24M8ckuQ23SboCCGxNb/ADP+YhOf4haJR/UuTa/b3iXXszJ0nFkZ5Rtkxn2+WDuPqYwD3+q6Hw94Pg0KaTLfO6ed0Lom7gNrNxDnFtd+iEKM5ONRXkEk3bNmaMHftABNrOliaGgEG/ciqI+iEJxgmDkzE1BmUX/EY2dLjTxP3RyRMbbQBQFXRHe1r6R4lkzceeIhnxGHsZkuY2RsbyeGvaHEnnqRaEKya2420Qj+pcnrM4yIcpro4nxl5PLSLeepcCSK9l4yKoPFirAvgAfRCFncmzRGKSKHskYA4kACqA56rxvc9hNHr24KEKJI8j5mtLN243RPTm1l5moNiDhRoAmh7/UoQrooqkzN/bDPuH9UIQrqRVuZ/9k=</t>
   </si>
 </sst>
 </file>
@@ -396,18 +405,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,7 +422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -429,7 +433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -440,7 +444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -451,7 +455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -462,7 +466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -471,12 +475,23 @@
       </c>
       <c r="C6" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C5" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -487,7 +502,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -502,7 +517,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/data7.xlsx
+++ b/data7.xlsx
@@ -1,79 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="510" yWindow="525" windowWidth="14055" windowHeight="4305"/>
-  </bookViews>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226" filterPrivacy="true"/>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>bilal</t>
-  </si>
-  <si>
-    <t>https://cdn.pixabay.com/photo/2023/10/20/10/41/man-8329151_1280.jpg</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>hasan</t>
-  </si>
-  <si>
-    <t>https://cdn.pixabay.com/photo/2023/10/17/09/27/glass-8320734_640.jpg</t>
-  </si>
-  <si>
-    <t>jihan</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>fatima joud</t>
-  </si>
-  <si>
-    <t>https://cdn.pixabay.com/photo/2023/09/22/07/02/red-8268266_640.jpg</t>
-  </si>
-  <si>
-    <t>hanadi joud</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>abdallah</t>
-  </si>
-  <si>
-    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAsJCQcJCQcJCQkJCwkJCQkJCQsJCwsMCwsLDA0QDBEODQ4MEhkSJRodJR0ZHxwpKRYlNzU2GioyPi0pMBk7IRP/2wBDAQcICAsJCxULCxUsHRkdLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCz/wAARCAC3AREDASIAAhEBAxEB/8QAGwAAAgMBAQEAAAAAAAAAAAAAAAECAwUGBAf/xABCEAABBAEDAgQDBQUECQUBAAABAAIDEQQFEiExUQYTIkEUYXEyUoGRoRUjQrHBktHh8RYzU1RjcoKi8AckQ2Jksv/EABoBAAIDAQEAAAAAAAAAAAAAAAABAgMEBQb/xAAlEQACAgEDBAMBAQEAAAAAAAAAAQIRAwQSIRMxQVEFFCIyQlL/2gAMAwEAAhEDEQA/AKhfdPnugIXorOFQxfdHPdFIpKwoOe6fPdFJ11RYULnunz3QnSVhQc90fiik0WFCv5o/FPhFIsKDnujnuhNFjoXPdHPdCKRYqDnujnuhFIsdBz3Rz3RSKRYUHPdHPdNFIsBc90c906RSLHQue6Oe6dIpFhRHnujlSopUiwoXKXPdSSpFhQue6XPdSpCdhRHnukpUlSLChc90KVIRYqIcJoRShZKhppJosKBPhAQiwoE0JpWFCT4QhIKDhCdITChAITQix0JCkikWOiKE0IsVBQRQQnSVhQqCE0IsKEnwhOqaXHoFCeSMFuk6RZDG5uooVBFdF5snJdFEXtA5IYw0SA53ufp9Fmlo2B1ne4291+qzxW5c5/Jw/wAq0b18fKv0+TaIRQWNJk5GGQGzb6BtsxLr43e/969WBqePnb46EeTG3c+Oz6m9N7Cfbv2/VaMGsx5nS7lGbSTxcvlHvoJUmhbLMtESEUpUkixUKglSkhOwojSFJCdgV+yEeyaiOgQhNKx0CaAmiwBCEx7JCoEITRYwQhCVhQITQnYCQmhFgJCaErChITQiwoEIToIsdDY3caVkrGsgeGu9UjmMDiDYDib/AJfqqTK2Ick8hxAHuWgGv5qjIzIzjSfej8qSgRyQ/af5rzfyWWUsm3wju6HGo49y7s82rBkTQeNpc4taXAkAGgaWY3KbfYAN61X5KOpzukdNufYEzto9qJ+az2vJaXAcCrPY9rWSK/Bpk/0aE537+bsEWBZodbI9+yxpsh+DNiZsZAfDI14HQyMPpewn5jgr0vn8twlF7h6upAPFdAsLLndO4MsbA66+Z6qzT7t25eCOWnGmfT43skZHJGbZIxsjD3a4bgVJZ2hOc/SNKLuox2t/BjnMH8lpL1EZWkzzrjToSE0cqdiEkmhG4KEhNCe4KKFJV2UwUrAmhQtO0rAsCLUAU76pWFE0BQtO0WFE01C0bkh0TQo2i0BRJCjuRuQFE0KFo3ICiaFHcjcgKJIUNyLQFE0Wo7kbkAKaJk8bo3ki6ILatrh0cLXOZWPq+GHs8mTKgcX3LiguPluFHfF9oEEA8WuywsL4hpleSI7LWAcbq6knt7L0z6ZhzxSwSwsdDJQLCTyOvBHPC5WseKbqSto6OmWSKtPg+Y5GYJY7J9ewNeDwdzAADz+CzjntYDHR4NEtN/jYXeZHgfTiS7FnzcYc7Wb2zRf2ZgT/ANyw8rwXqgLjBqGM8UeZIDCe/wD8YcFghGC4NkpN8nMSZU8rSxo2g8FxsE/JGHh5ObOzFxxulkPqJHpib7yPPsB/h7rYPhHxGxzXbsKUCiGmV21180Q5oWzgnWtNaY8nQomQCt82lGIusfxPi3lzj+IWvFGDdN0VZJyStI2seCPGgx8eO9kEUcTL6kMAFn69VcqYp4p42yxPDmO6GiORwQQ4Agj3BCkZGt6lddNVwcpptliF5JMyNvuF4pdSaLojj5qEsiirJRxuRqukY3qV535sTPcLAydU9JorIlz53nglUvVLwW/XZ2X7Ri7hC4n4qf7x/NCj9kOgdxuQHKncnuXQMpdaLVQcjckMutPd1VIcnuCQF1o3KrcnuSGW7kWqrCe5AFu5G5VbkbkAW7kblVuRaALdyNyqtFoAt3I3Kq0WgC3cjcqrRuQBbuRuVW5G5AGpjaqzEh8uVpMbSSHtaXbA42dwHNK2LW9Pm9UeRGQKstcCASa5pY25ebI0zHzGSvGPi+aAT5skZLm8df3bmuP5+652o0y/tOjbhzP+Wjq/2liE8yR0exBu+FCXMxC5w3xtIO0jcyuOL4PRfNzo2otD3ty5GtDgC2SB1DtRDv8AJUSQ69jtY9j2zNedzGwyTMkoW0Ha+vmBRKwdN+DZvR9DdkQjd+8YeLFCy4XXT2/FZWoavhY0Tg6Zt2QA3l3HsKXBSaplglkrMprh9prppGkfUEWjAlwsrMghyY5RHIQxhjk58w9A81dHpxSFjku6ByTOk0bNyJ36tkPBbBJNF5TfYPDSHVfy22rMzUNl0UOLY2CGFgZHGKa1ooALNmikeboq77DS2or6Cu2VPzZZCeSAvM+V/JLirXRFvNcLzSA304UN19x7aXBB0hd9UmjoSo1SlfB5UyJP8kKuyhAHVjJb3VgyGd1y4yJR/EVMZUw/iK7raOMpo6cTs+8n5zPvLmfjJh7o+Nm7pWPqI6cTs7p+fH94LmPjZu6PjZu6QdRHUefH94JieP7wXLfGzd0fGzd0C6iOq8+P7yl50f3guU+OnT+PmSH1InVedH94JGeMfxLlvj5kjmzFA+pE6n4mPul8TH95cr8XOf4kfFT/AHk6I9VHVfFR/eR8TH95cr8VP94pfFTfeKKF1UdX8Uzuj4qPuuV+Km+8UviZ/vFA+qjrBkxn3T86P7y5QZcw91P42ZDQ1lj5Op86P7wT82P7y5b46bt+qkM6bslTDqwOmM0Y9+tDgWSTwAAFvY/hfVMnHmmfkOw8gwv+FhsEukIOz4rggNvqACf5Lh9M1ZmJqGm5eSzdBjZUcso6+htjdR7XY+i+sQ+ItFmAMeZAbax9F20lrhbTtfTqP0XK+QzzxpRS4Z0dHGOW5LwfPcrR/wD1DjMjZNP89tel+Ll4xaCK9TQ4tPyrasKRniqGRrH6Tqoe2g3y8QybQG7QGFjS1fXZ/EGksMbfiYnOfe1sbt4FAklxbYAHNk9vmsbN8U6cwOEWQ1z+K2iQ0b9to+q461Uu1HS6FnzabS/E2aG+ZomsSbfTGZoXt2t+W5oVeNhZGk5LJ9V0vMxmHjHle0mKJx4JeAOvbnjsfbsM/wAVukbKzGZkOttBzj5ZaS2htJJI6m+OeO3PMahrGZqJbG+TZCA0GBrnO3FoHqkcfUSTyVohmlP80QljUFubNR74doII55v5KgSROdtvhYzp59oYOA0Bo69AoNkna7dd/muktE6swPXwujdfHC4FZ80MXPC85y5+g6fVQdNK4FNaORF66BFzGXSgI2klP94Uesf5Kz6jK/uwDykJ29Cf1Jew+7AW1G1TSW45G5kdqVBSTASDcRoILVPanSKFuK9qe0KykwPkpbRORVspKlaQFEhRaoakVgKVBFFFFIdgAFLaEg0qVFNMTZCgnXyCe0o2lAWLaE9oRTk6PZCYrFtCCApbSjaUxWJMBPYVMMcmiLZv+EtPxczU3uyGtezDxzksY4AtMpeGNc4Hj08kfOuy7LN0DSdSIlyYoZXD0+a8U9rfapGEPrtyvnumZ82mZbMljN7djopWdN8bqsA9+AV1w8S6C+5S+ZkmwMc1wPF+wj3bSfwXF+QjNT3eDv8Axs8bx7P9FU3g/D9Riys+BrXfw5by1p9q81r/AK9V4ZfC2OwhjtX1Ntiw3zodxBNXQjB/RWZHiTDcdjHahTjbnSOaABf8IBPT2H96xM3VWSsIi+MLrLhJLOCRxXHP4+65qdnVdey+Xwxo9gS6vqDnO2gXLEQSRYA9JJJ9qH+AfDDIY3+VqDo6Li1uXHjbQxoJuV7XMIPB9z+ixcXLbBMJZnvL42O27pBITIabZcXcAc9BfK0Ha+wtZFBjeY9jWiJvoeRt5sAkm1ojPJB/hlU8eOcf2jwvx5I2se4NdE8nypojcUoHNsJAP5hQ2BWz5GpalkRZGY3y2xA+WzndyNoBH+SRBC72nnKcLyLk8zq8cMeSsb4KixR2q4C0yxaODLbKQKToKZbSiixCoITQnYiqiggr0bG/NG0BUF9MoDSij2KtNBRsIsKYmglWBgQC1T3BPcg2AGNSeOOKQXKtzvmlvHtIO6pUndlWNHdLdYlFkBGSrPK6K0BvZS4TtD2eytsIPVMwj2U2mlZYI907Q+mjziIe6s8llKR2hLdfRFoNiIiFiDEwJgu7KXJ9kbh7EedwaPZK23yF6PLv2UTCUrZHpkWlnyVoLD2VRgf2KAyQexUd7Q1A6rRvDUOXjxZ+oPcIZW+Zj40e5hkjsgSSvHNGuAK+vNLoZtH0KSGPGk03COPG5zmt+Hb6HUBwftWfr/hz2neJmY2Fh4uQHtkx2iMPILw6KIANawA9T0J+XzXudr2DTX/Hx3KQ5sTXBz8d1/YI4Btvy63yffhajJkc2pWej0uLEoJwCXw94W3BzdGxmfxgu8wBzK6Bu8Nse/HH42PHLoPhJpc0aVCHtAe65MgC+QWkNkPT5HqPzjLrAkZEwzujad059bHOYfUwtffp42+r6joVly6ziOAlsby2Pc5m4l7+SDsPAr6n8+lKcjU0jR/0c8Ixt/fadvp2w1PkxlhJobtriP8Az5LPdoPhyR4bHgzRylpIbiT5DmWOSWySnbdVdkfaXidrGTKQ0ictH2nSPLq9LtwFHqeKteZ+t57AfLLGF8Jic6UgekinFouhxxfX+k05eyDS9FuoYjdKt0ec+aO6bBlhrpHDm6lj6V8xSqifHkRMkZe119eoINEGlkyy5OfKPLY6V9gMbEymRtqtoJFAfitvCw340DWSG5HOdI+uQC6vSD8l1dLKb4kcrV48a5j3IbACjheoxKBhcei3HN2lBaCo+T2Xp8p4S2uCBOCKPKKF6KKExbEeYNPZPYSrvLKmG91Eu2njMRKj5C0QwfJBjFeyi4j2mb5Lh0/RPynDuvdtA7J+WD7KOwNp4thUfJsr3GL5IbGeyNoUeRsAVhjA6L0OaR0UCCUNUNRKC0hApXFhKQhJKjTCiHpUgVPyCl5DkuR0QJCkNqflOCXlP9k7YUTAapABVtjdwrNrlLcKgJAS3t90FhUfJJKW5jotDmFejBwZtRyo8WAtaXAvkkd9mKJpALz+YAHzXkELgtrw7lR4WRmCQhvxEEbGuPdjy7bfzv8ARRyTkotonigpTSZv4+k4uCAMRp3AN3zvA857x7h3WvyHyXN6l4UmlyMjJwc6XHklkklkimYJIdzjucGAcgE/IrqX6jE5xcHEEVfTn27dEDPxXWNzPlfQ9guQ27tnaiklSPncnh7xWz7DcCcDkbSwH39pGtVY8PeLJDtdJiRdDy9o5HT/AFbCvoU+XC3zGQuhfP5LpGtJ9IIAdZdftzf/AIV5pdTwKA3t3N6mX0/OqNqG9J1SJ7HXc5GPwbnS0cnVDzbniON5APv6nuH/APK9uP4N0iMjzJsx8v8AC4ysjjH9hu4fmtR+u4oa4gh1D1Dix9Af6LwSeJsFrmOa9rvkOeeo/pastkdqL36Zh44eG+aQyz68iZ5odhI4/XoskZELsifGBt8TWv592u/u/wDOqq1PxE2QOELS5z63Ofw1pAIoX19vZeHTcecST5k4cHzDawP4cQSHFxHtfFLXp8k7q7Rk1OOG265NdTHRUhxVlml0kzmUS9KiQ1RJKiS5PcKiVNQo8oS3Coq3AKJeEqKYb3VW62WVRJr1ZuBUAxWtYVJWxEPZMfVSc0BQsBSET4UhSqL2oDwiwLCAVVx2UvNFJbmlQckSoVhWMc0KHpKg4gJbqCj07mlMbf0Xna9T8xSUrFRYaS2AqvzArBI1NOxD2gI2hNnmTSNihjfJI69rImOe91daa0WnMzIxyG5EM0Lj0E0b2X9NwQ2kOnVlT6HQKAcQeiDID7o3N7pWgLg8e6ZLTQqy47Q0AkuJ6AAc2vMXN7rs/BWNg7MzUpg1+THMcbH3UfJjEbXvc2/dxIF9h8+a8uVY4tssxY3kkooxsbwxrkwa+OKXFYQSBPO5pF9oxucP0Xof4R8QXbM7EcCKd5oy7I7U0ruMrWNOw2udNJGwAE8ubZIF00WufzfGuhRbhFM6V/pIDI9wHcenj9SuLkybndHZx43FVbMIeDdeLg92dpwLeWlsWa8j2v1SBVyeD8415mr4wd2+CkI44B5nv9F6pfHMVU2CUgud637WcHjjlZeR4zml3BkTL200lw9+pNKtNltGdqHhvVoNxgycDINdNkkUhrsHlzf+5czO3U4Hvjmj8p924FgHX3B7fQrpp9cz5uA4MJq38Od7cc8D8lnzTPmZ5cr943bhdEg17ccK2E15IOL8Hj0/UI8cgTYsL/8AjMY0Tt/6ncH9F0mmxu1qR8envie9jd72SyNjka3/AJTyfnVrlpcdoaTv2tJ5uhx2JUY3nEezIx5/KnhIkhkidtcx45BaQt0cyrgxTwW7Z3Z0HXYwScQuoWfKkY8/ldrPLjbm7HbmmnDabaRxzSj4p8QZ00OjNizXxPmxWZM8eJJtY5z2j1F8Z77gAqtJ1/Gw9FIy8l8uQcucxwtsyuY+nW57uKu+6I6me3dQT0sN1JlhkapQwZeWSMaCSQNNOcBTAe248WufzdezMt1QQwwCzRiZukI7Oe/+4L06f4i1PEaY55pHRCnxsjDbLwR6XhtCiLs9VZLLNxuK5KY6dbqb4Oh/Y+s/7sf7TULO/wBM5/8Adz/af/ehUdXUf8l/18PssLQFAkBWSMzIQ05uDm4hcaacmLbGf+sEgfjS0I9FlcHeZLtkHPlxt3iq+/dH8FrnmxxVtmSOnySdJGYHFSEhC0JNFzI6LSDdUHgsJJ6DnhdDp3g+FkTJ9Vkt59Xw8TyI2Ds57eSUnqcajdkvq5Lpo4t8h9/5qFud0BP0BP8AJfSXaNoMADo8aFhZ/wAMOPHTl1lejyImsiEbGgv9QOxvAA6UsGT5FLtE1w+Pb7yPlxa8clrx9WuH9FdBhZ2UCYIXuYKBlcNsYs19o/0BX02OCG/Xt9R9ILQeCPmrHwxFvDWU11C+KAq6pUv5BtcRLF8ek+ZHz9ugSxk/GZBiDRucyJlyFvFFu89D7Gvn7L3s0XSIoJMjI88MY4hrZpXMdIAaJtlNBHH9y62XAxXuc1sQB2gF1D137NWPkwQYU7dQy2PyY4GyyDHdRYZdtNeQ4cltcf4Krr5Z+TQtNhh4OWfib2F2Jp2oSNre10DJnte3p6S8bbPtz7LOdFlsYx2Ti5OM48ObkRPYQ66q3CvouqzPGGTHHFlsixZ8V3rMbNwf5Y+1T74cOatbUuTiTYkOW1wdiZMTJY9zAXObKGuaTuNd7taI58mPiXJRk02PJzHg+b8hben+GtX1CCLJD8eCKUbofPLzI9h6P2MHAPtZ/Be3D0rT8x8+VNE1sDpW+REwu27Rw4OjB2/Oif5rQzZBhw5DmSyskEYEEbXehxrhr/lQ9lPJqvECrHo/OTsZUvhHW4X1LJiMhbe+dz37W+/DHAEn8VdF4dwjQOXmy8cyRwsiivs0uDj+q1tEztI1DCgz98Yne1/xEMs+90UkZLajje4n2sEhRztdw4vLgYHzZU7vLghxmiWSS64awcX8zSoeoy3Vl8dLi9D05mLoUWSIQ6SWd9yPlIDzG1oAjBaOg5J+qqz9UxsmLZlOgdG4AFhaHEDrYvp8iqp9I8QZ74JJ34+FE15e6Jm6aZwqg1zmlrex9+n5+OTwhE7mbO1F3IdUZiiB+dBpVDlKUtzZojGMY7UjCyxpUeVp2P5hxnZX+utxyBBucQ0uo/S/qt3H8LRTOGyTOlaAfVG2FjXurgNc4EV+JUY/B2jslZM5+c97HNfck925p3C/StqPCx49v2zGLAjLnbG/Ntcj8CtHXaqmZ/rY27ozT4YAd5ceHkPJ+y6aYA+wJO19UPegtnC8NQYcU8TMnUayGsM7WTCOPc3i2UNw7fa/wtbnvx/svbQZHGGuN01g2irN/U+6ow9byMrWWYk2Tix4wxi9kRts805O1rbPFAWeqreScuLLVijHlIbvCXhskOnxpZXEEf8AvM7JffcUXhv6LzZOg+A4WuEuPgxcURHPIx19ra+1reICDpWoE+2O8tqxbug56r594Yf4ZyMiPDkxsjKznMkk+Jy9roS5nLmxxchoHsTZKNsmrQ7V0z0Y7PBEefm40OBiyRMh85uTkOdOAQacypifltoLJ1TR3ai7doej5RLHOcZoMZ8OO8F32BvDWmutj+truWYuLjSedjQQQyixccTA8AfMBN+bnmSCR873xxyslkjdt/esab2FxF0lHI07RJwtUfPMXwf47yASzTJGMAsOnkhja7/l3vs/gq3eF/GrcvGxJNNmY/IfsZIdrscAcl75WEtAH1/uX2vE1nEy7EfDw0l0cgpzB09vb6L0vjjlDTtB3OLieeOOq02vCM9NdzmdL8C6Fp0cMlnLzxGN2TlNbKwSHkmKB9xtHbgn5rz6jinGk8zPxsfJe123EmELP3MZA6tI69z0WrkahkaXPGydr/hJHNDMkbdsZcQA2YXddj+dKzMycMwSGUNdvPDRz5g/BVO/JYjkMnC0bUow12NCCBtaS1m5tmzRAtYcvg/GkmZ5c0sUIcA4AtlDW++0PP8AVbkWHj40ksrPOe6R5kDZHWyMk36GjhTc6V7ibBv7QAN0kpuPYl01LuZsXhbQmGnNyJWj/b5BaDX/ANYAwKjK8N6K6zDFNCR/sJXkV9JNy2HPLW01w6+45VLpCAfUSDV+3KOrL2PpRXgw/wDR3T//ANX9r/BC2PNb3P5lCfUl7Dpx9HWDw5+1ayc+aRkEjS848Lqvcbpz2n6dl4tT1DR9IONisZI2DGZxGxt8DgAEoQqly6G+x59VnjzNIiy4A7bKBsbe0g/VV6bquqyacMTIEYEQAbKHOfI4XYskoQrU/wAlfkugypsmQx+dIHgjZdkWvQzB1xkj7zRsabhtoJaDyQbQhKaTVUSg2ubPQ12owlvmzMk2G+WAEd6IVj9RawHe09zt9z3QhVdOPotUmQ/aryTI1oJAIF8VY7BYWs6u98UzQyiGPquQSRXN+yEK+EVdFU35OE+MZi4xe+HzY3TMLYnO/duIdZDwOaNLqW+IxquO2SKPygw7HxV6WEAUGkcEIQpzScbZWm7o0NHwtaknjycfyhiSODckTP8Ats62xrb5C1s/w/Lmxvjdlvjje5ol8tjS4sv1Na48ixxwhCofey5djx6n4b0eTyRjadjYjImtax2KXRzih9rzQdxP1tHhvRcfStXzZpsl+VJlYzG4j523LFRuVrndORt5QhE26BLk6jOzIMOKaaQEsjaXbQOq4XK8U6k+QvgETY73CNzDy3sShCemipJtorzScao9Om+JcbUHGCaJ8c97SWi2/mtLKE+243HcAdtmqNcFCEs0VGVIlCTatmFmQ607EeWfDOed173PsCqFELm8DE1LKmdPNkNx24M8ckuQ23SboCCGxNb/ADP+YhOf4haJR/UuTa/b3iXXszJ0nFkZ5Rtkxn2+WDuPqYwD3+q6Hw94Pg0KaTLfO6ed0Lom7gNrNxDnFtd+iEKM5ONRXkEk3bNmaMHftABNrOliaGgEG/ciqI+iEJxgmDkzE1BmUX/EY2dLjTxP3RyRMbbQBQFXRHe1r6R4lkzceeIhnxGHsZkuY2RsbyeGvaHEnnqRaEKya2420Qj+pcnrM4yIcpro4nxl5PLSLeepcCSK9l4yKoPFirAvgAfRCFncmzRGKSKHskYA4kACqA56rxvc9hNHr24KEKJI8j5mtLN243RPTm1l5moNiDhRoAmh7/UoQrooqkzN/bDPuH9UIQrqRVuZ/9k=</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,11 +74,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -263,20 +222,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -398,130 +353,199 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>image</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="str">
+        <v>bilal</v>
+      </c>
+      <c r="C2" t="str">
+        <v>https://cdn.pixabay.com/photo/2023/10/20/10/41/man-8329151_1280.jpg</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B3" t="str">
+        <v>hasan</v>
+      </c>
+      <c r="C3" t="str">
+        <v>https://cdn.pixabay.com/photo/2023/10/17/09/27/glass-8320734_640.jpg</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2</v>
+      </c>
+      <c r="B4" t="str">
+        <v>jihan</v>
+      </c>
+      <c r="C4" t="str">
+        <v>https://cdn.pixabay.com/photo/2023/10/17/09/27/glass-8320734_640.jpg</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" t="str">
+        <v>fatima joud</v>
+      </c>
+      <c r="C5" t="str">
+        <v>https://cdn.pixabay.com/photo/2023/09/22/07/02/red-8268266_640.jpg</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
+      <c r="B6" t="str">
+        <v>hanadi joud</v>
+      </c>
+      <c r="C6" t="str">
+        <v>https://cdn.pixabay.com/photo/2023/09/22/07/02/red-8268266_640.jpg</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>abdallah</v>
+      </c>
+      <c r="C7" t="str">
+        <v>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAsJCQcJCQcJCQkJCwkJCQkJCQsJCwsMCwsLDA0QDBEODQ4MEhkSJRodJR0ZHxwpKRYlNzU2GioyPi0pMBk7IRP/2wBDAQcICAsJCxULCxUsHRkdLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCz/wAARCAC3AREDASIAAhEBAxEB/8QAGwAAAgMBAQEAAAAAAAAAAAAAAAECAwUGBAf/xABCEAABBAEDAgQDBQUECQUBAAABAAIDEQQFEiExUQYTIkEUYXEyUoGRoRUjQrHBktHh8RYzU1RjcoKi8AckQ2Jksv/EABoBAAIDAQEAAAAAAAAAAAAAAAABAgMEBQb/xAAlEQACAgEDBAMBAQEAAAAAAAAAAQIRAwQSIRMxQVEFFCIyQlL/2gAMAwEAAhEDEQA/AKhfdPnugIXorOFQxfdHPdFIpKwoOe6fPdFJ11RYULnunz3QnSVhQc90fiik0WFCv5o/FPhFIsKDnujnuhNFjoXPdHPdCKRYqDnujnuhFIsdBz3Rz3RSKRYUHPdHPdNFIsBc90c906RSLHQue6Oe6dIpFhRHnujlSopUiwoXKXPdSSpFhQue6XPdSpCdhRHnukpUlSLChc90KVIRYqIcJoRShZKhppJosKBPhAQiwoE0JpWFCT4QhIKDhCdITChAITQix0JCkikWOiKE0IsVBQRQQnSVhQqCE0IsKEnwhOqaXHoFCeSMFuk6RZDG5uooVBFdF5snJdFEXtA5IYw0SA53ufp9Fmlo2B1ne4291+qzxW5c5/Jw/wAq0b18fKv0+TaIRQWNJk5GGQGzb6BtsxLr43e/969WBqePnb46EeTG3c+Oz6m9N7Cfbv2/VaMGsx5nS7lGbSTxcvlHvoJUmhbLMtESEUpUkixUKglSkhOwojSFJCdgV+yEeyaiOgQhNKx0CaAmiwBCEx7JCoEITRYwQhCVhQITQnYCQmhFgJCaErChITQiwoEIToIsdDY3caVkrGsgeGu9UjmMDiDYDib/AJfqqTK2Ick8hxAHuWgGv5qjIzIzjSfej8qSgRyQ/af5rzfyWWUsm3wju6HGo49y7s82rBkTQeNpc4taXAkAGgaWY3KbfYAN61X5KOpzukdNufYEzto9qJ+az2vJaXAcCrPY9rWSK/Bpk/0aE537+bsEWBZodbI9+yxpsh+DNiZsZAfDI14HQyMPpewn5jgr0vn8twlF7h6upAPFdAsLLndO4MsbA66+Z6qzT7t25eCOWnGmfT43skZHJGbZIxsjD3a4bgVJZ2hOc/SNKLuox2t/BjnMH8lpL1EZWkzzrjToSE0cqdiEkmhG4KEhNCe4KKFJV2UwUrAmhQtO0rAsCLUAU76pWFE0BQtO0WFE01C0bkh0TQo2i0BRJCjuRuQFE0KFo3ICiaFHcjcgKJIUNyLQFE0Wo7kbkAKaJk8bo3ki6ILatrh0cLXOZWPq+GHs8mTKgcX3LiguPluFHfF9oEEA8WuywsL4hpleSI7LWAcbq6knt7L0z6ZhzxSwSwsdDJQLCTyOvBHPC5WseKbqSto6OmWSKtPg+Y5GYJY7J9ewNeDwdzAADz+CzjntYDHR4NEtN/jYXeZHgfTiS7FnzcYc7Wb2zRf2ZgT/ANyw8rwXqgLjBqGM8UeZIDCe/wD8YcFghGC4NkpN8nMSZU8rSxo2g8FxsE/JGHh5ObOzFxxulkPqJHpib7yPPsB/h7rYPhHxGxzXbsKUCiGmV21180Q5oWzgnWtNaY8nQomQCt82lGIusfxPi3lzj+IWvFGDdN0VZJyStI2seCPGgx8eO9kEUcTL6kMAFn69VcqYp4p42yxPDmO6GiORwQQ4Agj3BCkZGt6lddNVwcpptliF5JMyNvuF4pdSaLojj5qEsiirJRxuRqukY3qV535sTPcLAydU9JorIlz53nglUvVLwW/XZ2X7Ri7hC4n4qf7x/NCj9kOgdxuQHKncnuXQMpdaLVQcjckMutPd1VIcnuCQF1o3KrcnuSGW7kWqrCe5AFu5G5VbkbkAW7kblVuRaALdyNyqtFoAt3I3Kq0WgC3cjcqrRuQBbuRuVW5G5AGpjaqzEh8uVpMbSSHtaXbA42dwHNK2LW9Pm9UeRGQKstcCASa5pY25ebI0zHzGSvGPi+aAT5skZLm8df3bmuP5+652o0y/tOjbhzP+Wjq/2liE8yR0exBu+FCXMxC5w3xtIO0jcyuOL4PRfNzo2otD3ty5GtDgC2SB1DtRDv8AJUSQ69jtY9j2zNedzGwyTMkoW0Ha+vmBRKwdN+DZvR9DdkQjd+8YeLFCy4XXT2/FZWoavhY0Tg6Zt2QA3l3HsKXBSaplglkrMprh9prppGkfUEWjAlwsrMghyY5RHIQxhjk58w9A81dHpxSFjku6ByTOk0bNyJ36tkPBbBJNF5TfYPDSHVfy22rMzUNl0UOLY2CGFgZHGKa1ooALNmikeboq77DS2or6Cu2VPzZZCeSAvM+V/JLirXRFvNcLzSA304UN19x7aXBB0hd9UmjoSo1SlfB5UyJP8kKuyhAHVjJb3VgyGd1y4yJR/EVMZUw/iK7raOMpo6cTs+8n5zPvLmfjJh7o+Nm7pWPqI6cTs7p+fH94LmPjZu6PjZu6QdRHUefH94JieP7wXLfGzd0fGzd0C6iOq8+P7yl50f3guU+OnT+PmSH1InVedH94JGeMfxLlvj5kjmzFA+pE6n4mPul8TH95cr8XOf4kfFT/AHk6I9VHVfFR/eR8TH95cr8VP94pfFTfeKKF1UdX8Uzuj4qPuuV+Km+8UviZ/vFA+qjrBkxn3T86P7y5QZcw91P42ZDQ1lj5Op86P7wT82P7y5b46bt+qkM6bslTDqwOmM0Y9+tDgWSTwAAFvY/hfVMnHmmfkOw8gwv+FhsEukIOz4rggNvqACf5Lh9M1ZmJqGm5eSzdBjZUcso6+htjdR7XY+i+sQ+ItFmAMeZAbax9F20lrhbTtfTqP0XK+QzzxpRS4Z0dHGOW5LwfPcrR/wD1DjMjZNP89tel+Ll4xaCK9TQ4tPyrasKRniqGRrH6Tqoe2g3y8QybQG7QGFjS1fXZ/EGksMbfiYnOfe1sbt4FAklxbYAHNk9vmsbN8U6cwOEWQ1z+K2iQ0b9to+q461Uu1HS6FnzabS/E2aG+ZomsSbfTGZoXt2t+W5oVeNhZGk5LJ9V0vMxmHjHle0mKJx4JeAOvbnjsfbsM/wAVukbKzGZkOttBzj5ZaS2htJJI6m+OeO3PMahrGZqJbG+TZCA0GBrnO3FoHqkcfUSTyVohmlP80QljUFubNR74doII55v5KgSROdtvhYzp59oYOA0Bo69AoNkna7dd/muktE6swPXwujdfHC4FZ80MXPC85y5+g6fVQdNK4FNaORF66BFzGXSgI2klP94Uesf5Kz6jK/uwDykJ29Cf1Jew+7AW1G1TSW45G5kdqVBSTASDcRoILVPanSKFuK9qe0KykwPkpbRORVspKlaQFEhRaoakVgKVBFFFFIdgAFLaEg0qVFNMTZCgnXyCe0o2lAWLaE9oRTk6PZCYrFtCCApbSjaUxWJMBPYVMMcmiLZv+EtPxczU3uyGtezDxzksY4AtMpeGNc4Hj08kfOuy7LN0DSdSIlyYoZXD0+a8U9rfapGEPrtyvnumZ82mZbMljN7djopWdN8bqsA9+AV1w8S6C+5S+ZkmwMc1wPF+wj3bSfwXF+QjNT3eDv8Axs8bx7P9FU3g/D9Riys+BrXfw5by1p9q81r/AK9V4ZfC2OwhjtX1Ntiw3zodxBNXQjB/RWZHiTDcdjHahTjbnSOaABf8IBPT2H96xM3VWSsIi+MLrLhJLOCRxXHP4+65qdnVdey+Xwxo9gS6vqDnO2gXLEQSRYA9JJJ9qH+AfDDIY3+VqDo6Li1uXHjbQxoJuV7XMIPB9z+ixcXLbBMJZnvL42O27pBITIabZcXcAc9BfK0Ha+wtZFBjeY9jWiJvoeRt5sAkm1ojPJB/hlU8eOcf2jwvx5I2se4NdE8nypojcUoHNsJAP5hQ2BWz5GpalkRZGY3y2xA+WzndyNoBH+SRBC72nnKcLyLk8zq8cMeSsb4KixR2q4C0yxaODLbKQKToKZbSiixCoITQnYiqiggr0bG/NG0BUF9MoDSij2KtNBRsIsKYmglWBgQC1T3BPcg2AGNSeOOKQXKtzvmlvHtIO6pUndlWNHdLdYlFkBGSrPK6K0BvZS4TtD2eytsIPVMwj2U2mlZYI907Q+mjziIe6s8llKR2hLdfRFoNiIiFiDEwJgu7KXJ9kbh7EedwaPZK23yF6PLv2UTCUrZHpkWlnyVoLD2VRgf2KAyQexUd7Q1A6rRvDUOXjxZ+oPcIZW+Zj40e5hkjsgSSvHNGuAK+vNLoZtH0KSGPGk03COPG5zmt+Hb6HUBwftWfr/hz2neJmY2Fh4uQHtkx2iMPILw6KIANawA9T0J+XzXudr2DTX/Hx3KQ5sTXBz8d1/YI4Btvy63yffhajJkc2pWej0uLEoJwCXw94W3BzdGxmfxgu8wBzK6Bu8Nse/HH42PHLoPhJpc0aVCHtAe65MgC+QWkNkPT5HqPzjLrAkZEwzujad059bHOYfUwtffp42+r6joVly6ziOAlsby2Pc5m4l7+SDsPAr6n8+lKcjU0jR/0c8Ixt/fadvp2w1PkxlhJobtriP8Az5LPdoPhyR4bHgzRylpIbiT5DmWOSWySnbdVdkfaXidrGTKQ0ictH2nSPLq9LtwFHqeKteZ+t57AfLLGF8Jic6UgekinFouhxxfX+k05eyDS9FuoYjdKt0ec+aO6bBlhrpHDm6lj6V8xSqifHkRMkZe119eoINEGlkyy5OfKPLY6V9gMbEymRtqtoJFAfitvCw340DWSG5HOdI+uQC6vSD8l1dLKb4kcrV48a5j3IbACjheoxKBhcei3HN2lBaCo+T2Xp8p4S2uCBOCKPKKF6KKExbEeYNPZPYSrvLKmG91Eu2njMRKj5C0QwfJBjFeyi4j2mb5Lh0/RPynDuvdtA7J+WD7KOwNp4thUfJsr3GL5IbGeyNoUeRsAVhjA6L0OaR0UCCUNUNRKC0hApXFhKQhJKjTCiHpUgVPyCl5DkuR0QJCkNqflOCXlP9k7YUTAapABVtjdwrNrlLcKgJAS3t90FhUfJJKW5jotDmFejBwZtRyo8WAtaXAvkkd9mKJpALz+YAHzXkELgtrw7lR4WRmCQhvxEEbGuPdjy7bfzv8ARRyTkotonigpTSZv4+k4uCAMRp3AN3zvA857x7h3WvyHyXN6l4UmlyMjJwc6XHklkklkimYJIdzjucGAcgE/IrqX6jE5xcHEEVfTn27dEDPxXWNzPlfQ9guQ27tnaiklSPncnh7xWz7DcCcDkbSwH39pGtVY8PeLJDtdJiRdDy9o5HT/AFbCvoU+XC3zGQuhfP5LpGtJ9IIAdZdftzf/AIV5pdTwKA3t3N6mX0/OqNqG9J1SJ7HXc5GPwbnS0cnVDzbniON5APv6nuH/APK9uP4N0iMjzJsx8v8AC4ysjjH9hu4fmtR+u4oa4gh1D1Dix9Af6LwSeJsFrmOa9rvkOeeo/pastkdqL36Zh44eG+aQyz68iZ5odhI4/XoskZELsifGBt8TWv592u/u/wDOqq1PxE2QOELS5z63Ofw1pAIoX19vZeHTcecST5k4cHzDawP4cQSHFxHtfFLXp8k7q7Rk1OOG265NdTHRUhxVlml0kzmUS9KiQ1RJKiS5PcKiVNQo8oS3Coq3AKJeEqKYb3VW62WVRJr1ZuBUAxWtYVJWxEPZMfVSc0BQsBSET4UhSqL2oDwiwLCAVVx2UvNFJbmlQckSoVhWMc0KHpKg4gJbqCj07mlMbf0Xna9T8xSUrFRYaS2AqvzArBI1NOxD2gI2hNnmTSNihjfJI69rImOe91daa0WnMzIxyG5EM0Lj0E0b2X9NwQ2kOnVlT6HQKAcQeiDID7o3N7pWgLg8e6ZLTQqy47Q0AkuJ6AAc2vMXN7rs/BWNg7MzUpg1+THMcbH3UfJjEbXvc2/dxIF9h8+a8uVY4tssxY3kkooxsbwxrkwa+OKXFYQSBPO5pF9oxucP0Xof4R8QXbM7EcCKd5oy7I7U0ruMrWNOw2udNJGwAE8ubZIF00WufzfGuhRbhFM6V/pIDI9wHcenj9SuLkybndHZx43FVbMIeDdeLg92dpwLeWlsWa8j2v1SBVyeD8415mr4wd2+CkI44B5nv9F6pfHMVU2CUgud637WcHjjlZeR4zml3BkTL200lw9+pNKtNltGdqHhvVoNxgycDINdNkkUhrsHlzf+5czO3U4Hvjmj8p924FgHX3B7fQrpp9cz5uA4MJq38Od7cc8D8lnzTPmZ5cr943bhdEg17ccK2E15IOL8Hj0/UI8cgTYsL/8AjMY0Tt/6ncH9F0mmxu1qR8envie9jd72SyNjka3/AJTyfnVrlpcdoaTv2tJ5uhx2JUY3nEezIx5/KnhIkhkidtcx45BaQt0cyrgxTwW7Z3Z0HXYwScQuoWfKkY8/ldrPLjbm7HbmmnDabaRxzSj4p8QZ00OjNizXxPmxWZM8eJJtY5z2j1F8Z77gAqtJ1/Gw9FIy8l8uQcucxwtsyuY+nW57uKu+6I6me3dQT0sN1JlhkapQwZeWSMaCSQNNOcBTAe248WufzdezMt1QQwwCzRiZukI7Oe/+4L06f4i1PEaY55pHRCnxsjDbLwR6XhtCiLs9VZLLNxuK5KY6dbqb4Oh/Y+s/7sf7TULO/wBM5/8Adz/af/ehUdXUf8l/18PssLQFAkBWSMzIQ05uDm4hcaacmLbGf+sEgfjS0I9FlcHeZLtkHPlxt3iq+/dH8FrnmxxVtmSOnySdJGYHFSEhC0JNFzI6LSDdUHgsJJ6DnhdDp3g+FkTJ9Vkt59Xw8TyI2Ds57eSUnqcajdkvq5Lpo4t8h9/5qFud0BP0BP8AJfSXaNoMADo8aFhZ/wAMOPHTl1lejyImsiEbGgv9QOxvAA6UsGT5FLtE1w+Pb7yPlxa8clrx9WuH9FdBhZ2UCYIXuYKBlcNsYs19o/0BX02OCG/Xt9R9ILQeCPmrHwxFvDWU11C+KAq6pUv5BtcRLF8ek+ZHz9ugSxk/GZBiDRucyJlyFvFFu89D7Gvn7L3s0XSIoJMjI88MY4hrZpXMdIAaJtlNBHH9y62XAxXuc1sQB2gF1D137NWPkwQYU7dQy2PyY4GyyDHdRYZdtNeQ4cltcf4Krr5Z+TQtNhh4OWfib2F2Jp2oSNre10DJnte3p6S8bbPtz7LOdFlsYx2Ti5OM48ObkRPYQ66q3CvouqzPGGTHHFlsixZ8V3rMbNwf5Y+1T74cOatbUuTiTYkOW1wdiZMTJY9zAXObKGuaTuNd7taI58mPiXJRk02PJzHg+b8hben+GtX1CCLJD8eCKUbofPLzI9h6P2MHAPtZ/Be3D0rT8x8+VNE1sDpW+REwu27Rw4OjB2/Oif5rQzZBhw5DmSyskEYEEbXehxrhr/lQ9lPJqvECrHo/OTsZUvhHW4X1LJiMhbe+dz37W+/DHAEn8VdF4dwjQOXmy8cyRwsiivs0uDj+q1tEztI1DCgz98Yne1/xEMs+90UkZLajje4n2sEhRztdw4vLgYHzZU7vLghxmiWSS64awcX8zSoeoy3Vl8dLi9D05mLoUWSIQ6SWd9yPlIDzG1oAjBaOg5J+qqz9UxsmLZlOgdG4AFhaHEDrYvp8iqp9I8QZ74JJ34+FE15e6Jm6aZwqg1zmlrex9+n5+OTwhE7mbO1F3IdUZiiB+dBpVDlKUtzZojGMY7UjCyxpUeVp2P5hxnZX+utxyBBucQ0uo/S/qt3H8LRTOGyTOlaAfVG2FjXurgNc4EV+JUY/B2jslZM5+c97HNfck925p3C/StqPCx49v2zGLAjLnbG/Ntcj8CtHXaqmZ/rY27ozT4YAd5ceHkPJ+y6aYA+wJO19UPegtnC8NQYcU8TMnUayGsM7WTCOPc3i2UNw7fa/wtbnvx/svbQZHGGuN01g2irN/U+6ow9byMrWWYk2Tix4wxi9kRts805O1rbPFAWeqreScuLLVijHlIbvCXhskOnxpZXEEf8AvM7JffcUXhv6LzZOg+A4WuEuPgxcURHPIx19ra+1reICDpWoE+2O8tqxbug56r594Yf4ZyMiPDkxsjKznMkk+Jy9roS5nLmxxchoHsTZKNsmrQ7V0z0Y7PBEefm40OBiyRMh85uTkOdOAQacypifltoLJ1TR3ai7doej5RLHOcZoMZ8OO8F32BvDWmutj+truWYuLjSedjQQQyixccTA8AfMBN+bnmSCR873xxyslkjdt/esab2FxF0lHI07RJwtUfPMXwf47yASzTJGMAsOnkhja7/l3vs/gq3eF/GrcvGxJNNmY/IfsZIdrscAcl75WEtAH1/uX2vE1nEy7EfDw0l0cgpzB09vb6L0vjjlDTtB3OLieeOOq02vCM9NdzmdL8C6Fp0cMlnLzxGN2TlNbKwSHkmKB9xtHbgn5rz6jinGk8zPxsfJe123EmELP3MZA6tI69z0WrkahkaXPGydr/hJHNDMkbdsZcQA2YXddj+dKzMycMwSGUNdvPDRz5g/BVO/JYjkMnC0bUow12NCCBtaS1m5tmzRAtYcvg/GkmZ5c0sUIcA4AtlDW++0PP8AVbkWHj40ksrPOe6R5kDZHWyMk36GjhTc6V7ibBv7QAN0kpuPYl01LuZsXhbQmGnNyJWj/b5BaDX/ANYAwKjK8N6K6zDFNCR/sJXkV9JNy2HPLW01w6+45VLpCAfUSDV+3KOrL2PpRXgw/wDR3T//ANX9r/BC2PNb3P5lCfUl7Dpx9HWDw5+1ayc+aRkEjS848Lqvcbpz2n6dl4tT1DR9IONisZI2DGZxGxt8DgAEoQqly6G+x59VnjzNIiy4A7bKBsbe0g/VV6bquqyacMTIEYEQAbKHOfI4XYskoQrU/wAlfkugypsmQx+dIHgjZdkWvQzB1xkj7zRsabhtoJaDyQbQhKaTVUSg2ubPQ12owlvmzMk2G+WAEd6IVj9RawHe09zt9z3QhVdOPotUmQ/aryTI1oJAIF8VY7BYWs6u98UzQyiGPquQSRXN+yEK+EVdFU35OE+MZi4xe+HzY3TMLYnO/duIdZDwOaNLqW+IxquO2SKPygw7HxV6WEAUGkcEIQpzScbZWm7o0NHwtaknjycfyhiSODckTP8Ats62xrb5C1s/w/Lmxvjdlvjje5ol8tjS4sv1Na48ixxwhCofey5djx6n4b0eTyRjadjYjImtax2KXRzih9rzQdxP1tHhvRcfStXzZpsl+VJlYzG4j523LFRuVrndORt5QhE26BLk6jOzIMOKaaQEsjaXbQOq4XK8U6k+QvgETY73CNzDy3sShCemipJtorzScao9Om+JcbUHGCaJ8c97SWi2/mtLKE+243HcAdtmqNcFCEs0VGVIlCTatmFmQ607EeWfDOed173PsCqFELm8DE1LKmdPNkNx24M8ckuQ23SboCCGxNb/ADP+YhOf4haJR/UuTa/b3iXXszJ0nFkZ5Rtkxn2+WDuPqYwD3+q6Hw94Pg0KaTLfO6ed0Lom7gNrNxDnFtd+iEKM5ONRXkEk3bNmaMHftABNrOliaGgEG/ciqI+iEJxgmDkzE1BmUX/EY2dLjTxP3RyRMbbQBQFXRHe1r6R4lkzceeIhnxGHsZkuY2RsbyeGvaHEnnqRaEKya2420Qj+pcnrM4yIcpro4nxl5PLSLeepcCSK9l4yKoPFirAvgAfRCFncmzRGKSKHskYA4kACqA56rxvc9hNHr24KEKJI8j5mtLN243RPTm1l5moNiDhRoAmh7/UoQrooqkzN/bDPuH9UIQrqRVuZ/9k=</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>mohammad</v>
+      </c>
+      <c r="C8" t="str">
+        <v>https://cdn.pixabay.com/photo/2023/10/25/07/29/woman-8339755_640.jpg</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>ahmad sayed</v>
+      </c>
+      <c r="C9" t="str">
+        <v>https://cdn.pixabay.com/photo/2023/10/25/07/29/woman-8339755_640.jpg</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>nasab akhras</v>
+      </c>
+      <c r="C10" t="str">
+        <v>https://cdn.pixabay.com/photo/2023/10/25/07/29/woman-8339755_640.jpg</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C7" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C10"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data7.xlsx
+++ b/data7.xlsx
@@ -471,22 +471,22 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>abdallah</v>
+        <v>mohammad</v>
       </c>
       <c r="C7" t="str">
-        <v>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAsJCQcJCQcJCQkJCwkJCQkJCQsJCwsMCwsLDA0QDBEODQ4MEhkSJRodJR0ZHxwpKRYlNzU2GioyPi0pMBk7IRP/2wBDAQcICAsJCxULCxUsHRkdLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCz/wAARCAC3AREDASIAAhEBAxEB/8QAGwAAAgMBAQEAAAAAAAAAAAAAAAECAwUGBAf/xABCEAABBAEDAgQDBQUECQUBAAABAAIDEQQFEiExUQYTIkEUYXEyUoGRoRUjQrHBktHh8RYzU1RjcoKi8AckQ2Jksv/EABoBAAIDAQEAAAAAAAAAAAAAAAABAgMEBQb/xAAlEQACAgEDBAMBAQEAAAAAAAAAAQIRAwQSIRMxQVEFFCIyQlL/2gAMAwEAAhEDEQA/AKhfdPnugIXorOFQxfdHPdFIpKwoOe6fPdFJ11RYULnunz3QnSVhQc90fiik0WFCv5o/FPhFIsKDnujnuhNFjoXPdHPdCKRYqDnujnuhFIsdBz3Rz3RSKRYUHPdHPdNFIsBc90c906RSLHQue6Oe6dIpFhRHnujlSopUiwoXKXPdSSpFhQue6XPdSpCdhRHnukpUlSLChc90KVIRYqIcJoRShZKhppJosKBPhAQiwoE0JpWFCT4QhIKDhCdITChAITQix0JCkikWOiKE0IsVBQRQQnSVhQqCE0IsKEnwhOqaXHoFCeSMFuk6RZDG5uooVBFdF5snJdFEXtA5IYw0SA53ufp9Fmlo2B1ne4291+qzxW5c5/Jw/wAq0b18fKv0+TaIRQWNJk5GGQGzb6BtsxLr43e/969WBqePnb46EeTG3c+Oz6m9N7Cfbv2/VaMGsx5nS7lGbSTxcvlHvoJUmhbLMtESEUpUkixUKglSkhOwojSFJCdgV+yEeyaiOgQhNKx0CaAmiwBCEx7JCoEITRYwQhCVhQITQnYCQmhFgJCaErChITQiwoEIToIsdDY3caVkrGsgeGu9UjmMDiDYDib/AJfqqTK2Ick8hxAHuWgGv5qjIzIzjSfej8qSgRyQ/af5rzfyWWUsm3wju6HGo49y7s82rBkTQeNpc4taXAkAGgaWY3KbfYAN61X5KOpzukdNufYEzto9qJ+az2vJaXAcCrPY9rWSK/Bpk/0aE537+bsEWBZodbI9+yxpsh+DNiZsZAfDI14HQyMPpewn5jgr0vn8twlF7h6upAPFdAsLLndO4MsbA66+Z6qzT7t25eCOWnGmfT43skZHJGbZIxsjD3a4bgVJZ2hOc/SNKLuox2t/BjnMH8lpL1EZWkzzrjToSE0cqdiEkmhG4KEhNCe4KKFJV2UwUrAmhQtO0rAsCLUAU76pWFE0BQtO0WFE01C0bkh0TQo2i0BRJCjuRuQFE0KFo3ICiaFHcjcgKJIUNyLQFE0Wo7kbkAKaJk8bo3ki6ILatrh0cLXOZWPq+GHs8mTKgcX3LiguPluFHfF9oEEA8WuywsL4hpleSI7LWAcbq6knt7L0z6ZhzxSwSwsdDJQLCTyOvBHPC5WseKbqSto6OmWSKtPg+Y5GYJY7J9ewNeDwdzAADz+CzjntYDHR4NEtN/jYXeZHgfTiS7FnzcYc7Wb2zRf2ZgT/ANyw8rwXqgLjBqGM8UeZIDCe/wD8YcFghGC4NkpN8nMSZU8rSxo2g8FxsE/JGHh5ObOzFxxulkPqJHpib7yPPsB/h7rYPhHxGxzXbsKUCiGmV21180Q5oWzgnWtNaY8nQomQCt82lGIusfxPi3lzj+IWvFGDdN0VZJyStI2seCPGgx8eO9kEUcTL6kMAFn69VcqYp4p42yxPDmO6GiORwQQ4Agj3BCkZGt6lddNVwcpptliF5JMyNvuF4pdSaLojj5qEsiirJRxuRqukY3qV535sTPcLAydU9JorIlz53nglUvVLwW/XZ2X7Ri7hC4n4qf7x/NCj9kOgdxuQHKncnuXQMpdaLVQcjckMutPd1VIcnuCQF1o3KrcnuSGW7kWqrCe5AFu5G5VbkbkAW7kblVuRaALdyNyqtFoAt3I3Kq0WgC3cjcqrRuQBbuRuVW5G5AGpjaqzEh8uVpMbSSHtaXbA42dwHNK2LW9Pm9UeRGQKstcCASa5pY25ebI0zHzGSvGPi+aAT5skZLm8df3bmuP5+652o0y/tOjbhzP+Wjq/2liE8yR0exBu+FCXMxC5w3xtIO0jcyuOL4PRfNzo2otD3ty5GtDgC2SB1DtRDv8AJUSQ69jtY9j2zNedzGwyTMkoW0Ha+vmBRKwdN+DZvR9DdkQjd+8YeLFCy4XXT2/FZWoavhY0Tg6Zt2QA3l3HsKXBSaplglkrMprh9prppGkfUEWjAlwsrMghyY5RHIQxhjk58w9A81dHpxSFjku6ByTOk0bNyJ36tkPBbBJNF5TfYPDSHVfy22rMzUNl0UOLY2CGFgZHGKa1ooALNmikeboq77DS2or6Cu2VPzZZCeSAvM+V/JLirXRFvNcLzSA304UN19x7aXBB0hd9UmjoSo1SlfB5UyJP8kKuyhAHVjJb3VgyGd1y4yJR/EVMZUw/iK7raOMpo6cTs+8n5zPvLmfjJh7o+Nm7pWPqI6cTs7p+fH94LmPjZu6PjZu6QdRHUefH94JieP7wXLfGzd0fGzd0C6iOq8+P7yl50f3guU+OnT+PmSH1InVedH94JGeMfxLlvj5kjmzFA+pE6n4mPul8TH95cr8XOf4kfFT/AHk6I9VHVfFR/eR8TH95cr8VP94pfFTfeKKF1UdX8Uzuj4qPuuV+Km+8UviZ/vFA+qjrBkxn3T86P7y5QZcw91P42ZDQ1lj5Op86P7wT82P7y5b46bt+qkM6bslTDqwOmM0Y9+tDgWSTwAAFvY/hfVMnHmmfkOw8gwv+FhsEukIOz4rggNvqACf5Lh9M1ZmJqGm5eSzdBjZUcso6+htjdR7XY+i+sQ+ItFmAMeZAbax9F20lrhbTtfTqP0XK+QzzxpRS4Z0dHGOW5LwfPcrR/wD1DjMjZNP89tel+Ll4xaCK9TQ4tPyrasKRniqGRrH6Tqoe2g3y8QybQG7QGFjS1fXZ/EGksMbfiYnOfe1sbt4FAklxbYAHNk9vmsbN8U6cwOEWQ1z+K2iQ0b9to+q461Uu1HS6FnzabS/E2aG+ZomsSbfTGZoXt2t+W5oVeNhZGk5LJ9V0vMxmHjHle0mKJx4JeAOvbnjsfbsM/wAVukbKzGZkOttBzj5ZaS2htJJI6m+OeO3PMahrGZqJbG+TZCA0GBrnO3FoHqkcfUSTyVohmlP80QljUFubNR74doII55v5KgSROdtvhYzp59oYOA0Bo69AoNkna7dd/muktE6swPXwujdfHC4FZ80MXPC85y5+g6fVQdNK4FNaORF66BFzGXSgI2klP94Uesf5Kz6jK/uwDykJ29Cf1Jew+7AW1G1TSW45G5kdqVBSTASDcRoILVPanSKFuK9qe0KykwPkpbRORVspKlaQFEhRaoakVgKVBFFFFIdgAFLaEg0qVFNMTZCgnXyCe0o2lAWLaE9oRTk6PZCYrFtCCApbSjaUxWJMBPYVMMcmiLZv+EtPxczU3uyGtezDxzksY4AtMpeGNc4Hj08kfOuy7LN0DSdSIlyYoZXD0+a8U9rfapGEPrtyvnumZ82mZbMljN7djopWdN8bqsA9+AV1w8S6C+5S+ZkmwMc1wPF+wj3bSfwXF+QjNT3eDv8Axs8bx7P9FU3g/D9Riys+BrXfw5by1p9q81r/AK9V4ZfC2OwhjtX1Ntiw3zodxBNXQjB/RWZHiTDcdjHahTjbnSOaABf8IBPT2H96xM3VWSsIi+MLrLhJLOCRxXHP4+65qdnVdey+Xwxo9gS6vqDnO2gXLEQSRYA9JJJ9qH+AfDDIY3+VqDo6Li1uXHjbQxoJuV7XMIPB9z+ixcXLbBMJZnvL42O27pBITIabZcXcAc9BfK0Ha+wtZFBjeY9jWiJvoeRt5sAkm1ojPJB/hlU8eOcf2jwvx5I2se4NdE8nypojcUoHNsJAP5hQ2BWz5GpalkRZGY3y2xA+WzndyNoBH+SRBC72nnKcLyLk8zq8cMeSsb4KixR2q4C0yxaODLbKQKToKZbSiixCoITQnYiqiggr0bG/NG0BUF9MoDSij2KtNBRsIsKYmglWBgQC1T3BPcg2AGNSeOOKQXKtzvmlvHtIO6pUndlWNHdLdYlFkBGSrPK6K0BvZS4TtD2eytsIPVMwj2U2mlZYI907Q+mjziIe6s8llKR2hLdfRFoNiIiFiDEwJgu7KXJ9kbh7EedwaPZK23yF6PLv2UTCUrZHpkWlnyVoLD2VRgf2KAyQexUd7Q1A6rRvDUOXjxZ+oPcIZW+Zj40e5hkjsgSSvHNGuAK+vNLoZtH0KSGPGk03COPG5zmt+Hb6HUBwftWfr/hz2neJmY2Fh4uQHtkx2iMPILw6KIANawA9T0J+XzXudr2DTX/Hx3KQ5sTXBz8d1/YI4Btvy63yffhajJkc2pWej0uLEoJwCXw94W3BzdGxmfxgu8wBzK6Bu8Nse/HH42PHLoPhJpc0aVCHtAe65MgC+QWkNkPT5HqPzjLrAkZEwzujad059bHOYfUwtffp42+r6joVly6ziOAlsby2Pc5m4l7+SDsPAr6n8+lKcjU0jR/0c8Ixt/fadvp2w1PkxlhJobtriP8Az5LPdoPhyR4bHgzRylpIbiT5DmWOSWySnbdVdkfaXidrGTKQ0ictH2nSPLq9LtwFHqeKteZ+t57AfLLGF8Jic6UgekinFouhxxfX+k05eyDS9FuoYjdKt0ec+aO6bBlhrpHDm6lj6V8xSqifHkRMkZe119eoINEGlkyy5OfKPLY6V9gMbEymRtqtoJFAfitvCw340DWSG5HOdI+uQC6vSD8l1dLKb4kcrV48a5j3IbACjheoxKBhcei3HN2lBaCo+T2Xp8p4S2uCBOCKPKKF6KKExbEeYNPZPYSrvLKmG91Eu2njMRKj5C0QwfJBjFeyi4j2mb5Lh0/RPynDuvdtA7J+WD7KOwNp4thUfJsr3GL5IbGeyNoUeRsAVhjA6L0OaR0UCCUNUNRKC0hApXFhKQhJKjTCiHpUgVPyCl5DkuR0QJCkNqflOCXlP9k7YUTAapABVtjdwrNrlLcKgJAS3t90FhUfJJKW5jotDmFejBwZtRyo8WAtaXAvkkd9mKJpALz+YAHzXkELgtrw7lR4WRmCQhvxEEbGuPdjy7bfzv8ARRyTkotonigpTSZv4+k4uCAMRp3AN3zvA857x7h3WvyHyXN6l4UmlyMjJwc6XHklkklkimYJIdzjucGAcgE/IrqX6jE5xcHEEVfTn27dEDPxXWNzPlfQ9guQ27tnaiklSPncnh7xWz7DcCcDkbSwH39pGtVY8PeLJDtdJiRdDy9o5HT/AFbCvoU+XC3zGQuhfP5LpGtJ9IIAdZdftzf/AIV5pdTwKA3t3N6mX0/OqNqG9J1SJ7HXc5GPwbnS0cnVDzbniON5APv6nuH/APK9uP4N0iMjzJsx8v8AC4ysjjH9hu4fmtR+u4oa4gh1D1Dix9Af6LwSeJsFrmOa9rvkOeeo/pastkdqL36Zh44eG+aQyz68iZ5odhI4/XoskZELsifGBt8TWv592u/u/wDOqq1PxE2QOELS5z63Ofw1pAIoX19vZeHTcecST5k4cHzDawP4cQSHFxHtfFLXp8k7q7Rk1OOG265NdTHRUhxVlml0kzmUS9KiQ1RJKiS5PcKiVNQo8oS3Coq3AKJeEqKYb3VW62WVRJr1ZuBUAxWtYVJWxEPZMfVSc0BQsBSET4UhSqL2oDwiwLCAVVx2UvNFJbmlQckSoVhWMc0KHpKg4gJbqCj07mlMbf0Xna9T8xSUrFRYaS2AqvzArBI1NOxD2gI2hNnmTSNihjfJI69rImOe91daa0WnMzIxyG5EM0Lj0E0b2X9NwQ2kOnVlT6HQKAcQeiDID7o3N7pWgLg8e6ZLTQqy47Q0AkuJ6AAc2vMXN7rs/BWNg7MzUpg1+THMcbH3UfJjEbXvc2/dxIF9h8+a8uVY4tssxY3kkooxsbwxrkwa+OKXFYQSBPO5pF9oxucP0Xof4R8QXbM7EcCKd5oy7I7U0ruMrWNOw2udNJGwAE8ubZIF00WufzfGuhRbhFM6V/pIDI9wHcenj9SuLkybndHZx43FVbMIeDdeLg92dpwLeWlsWa8j2v1SBVyeD8415mr4wd2+CkI44B5nv9F6pfHMVU2CUgud637WcHjjlZeR4zml3BkTL200lw9+pNKtNltGdqHhvVoNxgycDINdNkkUhrsHlzf+5czO3U4Hvjmj8p924FgHX3B7fQrpp9cz5uA4MJq38Od7cc8D8lnzTPmZ5cr943bhdEg17ccK2E15IOL8Hj0/UI8cgTYsL/8AjMY0Tt/6ncH9F0mmxu1qR8envie9jd72SyNjka3/AJTyfnVrlpcdoaTv2tJ5uhx2JUY3nEezIx5/KnhIkhkidtcx45BaQt0cyrgxTwW7Z3Z0HXYwScQuoWfKkY8/ldrPLjbm7HbmmnDabaRxzSj4p8QZ00OjNizXxPmxWZM8eJJtY5z2j1F8Z77gAqtJ1/Gw9FIy8l8uQcucxwtsyuY+nW57uKu+6I6me3dQT0sN1JlhkapQwZeWSMaCSQNNOcBTAe248WufzdezMt1QQwwCzRiZukI7Oe/+4L06f4i1PEaY55pHRCnxsjDbLwR6XhtCiLs9VZLLNxuK5KY6dbqb4Oh/Y+s/7sf7TULO/wBM5/8Adz/af/ehUdXUf8l/18PssLQFAkBWSMzIQ05uDm4hcaacmLbGf+sEgfjS0I9FlcHeZLtkHPlxt3iq+/dH8FrnmxxVtmSOnySdJGYHFSEhC0JNFzI6LSDdUHgsJJ6DnhdDp3g+FkTJ9Vkt59Xw8TyI2Ds57eSUnqcajdkvq5Lpo4t8h9/5qFud0BP0BP8AJfSXaNoMADo8aFhZ/wAMOPHTl1lejyImsiEbGgv9QOxvAA6UsGT5FLtE1w+Pb7yPlxa8clrx9WuH9FdBhZ2UCYIXuYKBlcNsYs19o/0BX02OCG/Xt9R9ILQeCPmrHwxFvDWU11C+KAq6pUv5BtcRLF8ek+ZHz9ugSxk/GZBiDRucyJlyFvFFu89D7Gvn7L3s0XSIoJMjI88MY4hrZpXMdIAaJtlNBHH9y62XAxXuc1sQB2gF1D137NWPkwQYU7dQy2PyY4GyyDHdRYZdtNeQ4cltcf4Krr5Z+TQtNhh4OWfib2F2Jp2oSNre10DJnte3p6S8bbPtz7LOdFlsYx2Ti5OM48ObkRPYQ66q3CvouqzPGGTHHFlsixZ8V3rMbNwf5Y+1T74cOatbUuTiTYkOW1wdiZMTJY9zAXObKGuaTuNd7taI58mPiXJRk02PJzHg+b8hben+GtX1CCLJD8eCKUbofPLzI9h6P2MHAPtZ/Be3D0rT8x8+VNE1sDpW+REwu27Rw4OjB2/Oif5rQzZBhw5DmSyskEYEEbXehxrhr/lQ9lPJqvECrHo/OTsZUvhHW4X1LJiMhbe+dz37W+/DHAEn8VdF4dwjQOXmy8cyRwsiivs0uDj+q1tEztI1DCgz98Yne1/xEMs+90UkZLajje4n2sEhRztdw4vLgYHzZU7vLghxmiWSS64awcX8zSoeoy3Vl8dLi9D05mLoUWSIQ6SWd9yPlIDzG1oAjBaOg5J+qqz9UxsmLZlOgdG4AFhaHEDrYvp8iqp9I8QZ74JJ34+FE15e6Jm6aZwqg1zmlrex9+n5+OTwhE7mbO1F3IdUZiiB+dBpVDlKUtzZojGMY7UjCyxpUeVp2P5hxnZX+utxyBBucQ0uo/S/qt3H8LRTOGyTOlaAfVG2FjXurgNc4EV+JUY/B2jslZM5+c97HNfck925p3C/StqPCx49v2zGLAjLnbG/Ntcj8CtHXaqmZ/rY27ozT4YAd5ceHkPJ+y6aYA+wJO19UPegtnC8NQYcU8TMnUayGsM7WTCOPc3i2UNw7fa/wtbnvx/svbQZHGGuN01g2irN/U+6ow9byMrWWYk2Tix4wxi9kRts805O1rbPFAWeqreScuLLVijHlIbvCXhskOnxpZXEEf8AvM7JffcUXhv6LzZOg+A4WuEuPgxcURHPIx19ra+1reICDpWoE+2O8tqxbug56r594Yf4ZyMiPDkxsjKznMkk+Jy9roS5nLmxxchoHsTZKNsmrQ7V0z0Y7PBEefm40OBiyRMh85uTkOdOAQacypifltoLJ1TR3ai7doej5RLHOcZoMZ8OO8F32BvDWmutj+truWYuLjSedjQQQyixccTA8AfMBN+bnmSCR873xxyslkjdt/esab2FxF0lHI07RJwtUfPMXwf47yASzTJGMAsOnkhja7/l3vs/gq3eF/GrcvGxJNNmY/IfsZIdrscAcl75WEtAH1/uX2vE1nEy7EfDw0l0cgpzB09vb6L0vjjlDTtB3OLieeOOq02vCM9NdzmdL8C6Fp0cMlnLzxGN2TlNbKwSHkmKB9xtHbgn5rz6jinGk8zPxsfJe123EmELP3MZA6tI69z0WrkahkaXPGydr/hJHNDMkbdsZcQA2YXddj+dKzMycMwSGUNdvPDRz5g/BVO/JYjkMnC0bUow12NCCBtaS1m5tmzRAtYcvg/GkmZ5c0sUIcA4AtlDW++0PP8AVbkWHj40ksrPOe6R5kDZHWyMk36GjhTc6V7ibBv7QAN0kpuPYl01LuZsXhbQmGnNyJWj/b5BaDX/ANYAwKjK8N6K6zDFNCR/sJXkV9JNy2HPLW01w6+45VLpCAfUSDV+3KOrL2PpRXgw/wDR3T//ANX9r/BC2PNb3P5lCfUl7Dpx9HWDw5+1ayc+aRkEjS848Lqvcbpz2n6dl4tT1DR9IONisZI2DGZxGxt8DgAEoQqly6G+x59VnjzNIiy4A7bKBsbe0g/VV6bquqyacMTIEYEQAbKHOfI4XYskoQrU/wAlfkugypsmQx+dIHgjZdkWvQzB1xkj7zRsabhtoJaDyQbQhKaTVUSg2ubPQ12owlvmzMk2G+WAEd6IVj9RawHe09zt9z3QhVdOPotUmQ/aryTI1oJAIF8VY7BYWs6u98UzQyiGPquQSRXN+yEK+EVdFU35OE+MZi4xe+HzY3TMLYnO/duIdZDwOaNLqW+IxquO2SKPygw7HxV6WEAUGkcEIQpzScbZWm7o0NHwtaknjycfyhiSODckTP8Ats62xrb5C1s/w/Lmxvjdlvjje5ol8tjS4sv1Na48ixxwhCofey5djx6n4b0eTyRjadjYjImtax2KXRzih9rzQdxP1tHhvRcfStXzZpsl+VJlYzG4j523LFRuVrndORt5QhE26BLk6jOzIMOKaaQEsjaXbQOq4XK8U6k+QvgETY73CNzDy3sShCemipJtorzScao9Om+JcbUHGCaJ8c97SWi2/mtLKE+243HcAdtmqNcFCEs0VGVIlCTatmFmQ607EeWfDOed173PsCqFELm8DE1LKmdPNkNx24M8ckuQ23SboCCGxNb/ADP+YhOf4haJR/UuTa/b3iXXszJ0nFkZ5Rtkxn2+WDuPqYwD3+q6Hw94Pg0KaTLfO6ed0Lom7gNrNxDnFtd+iEKM5ONRXkEk3bNmaMHftABNrOliaGgEG/ciqI+iEJxgmDkzE1BmUX/EY2dLjTxP3RyRMbbQBQFXRHe1r6R4lkzceeIhnxGHsZkuY2RsbyeGvaHEnnqRaEKya2420Qj+pcnrM4yIcpro4nxl5PLSLeepcCSK9l4yKoPFirAvgAfRCFncmzRGKSKHskYA4kACqA56rxvc9hNHr24KEKJI8j5mtLN243RPTm1l5moNiDhRoAmh7/UoQrooqkzN/bDPuH9UIQrqRVuZ/9k=</v>
+        <v>https://cdn.pixabay.com/photo/2023/10/25/07/29/woman-8339755_640.jpg</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>mohammad</v>
+        <v>ahmad sayed</v>
       </c>
       <c r="C8" t="str">
         <v>https://cdn.pixabay.com/photo/2023/10/25/07/29/woman-8339755_640.jpg</v>
@@ -494,10 +494,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="str">
-        <v>ahmad sayed</v>
+        <v>ahmad</v>
       </c>
       <c r="C9" t="str">
         <v>https://cdn.pixabay.com/photo/2023/10/25/07/29/woman-8339755_640.jpg</v>
@@ -505,10 +505,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="str">
-        <v>nasab akhras</v>
+        <v>abd el naser</v>
       </c>
       <c r="C10" t="str">
         <v>https://cdn.pixabay.com/photo/2023/10/25/07/29/woman-8339755_640.jpg</v>

--- a/data7.xlsx
+++ b/data7.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -514,10 +514,21 @@
         <v>https://cdn.pixabay.com/photo/2023/10/25/07/29/woman-8339755_640.jpg</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>13</v>
+      </c>
+      <c r="B11" t="str">
+        <v>joud joud</v>
+      </c>
+      <c r="C11" t="str">
+        <v>https://cdn.pixabay.com/photo/2018/06/27/07/45/college-student-3500990_640.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C11"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data7.xlsx
+++ b/data7.xlsx
@@ -459,73 +459,54 @@
         <v>https://cdn.pixabay.com/photo/2023/09/22/07/02/red-8268266_640.jpg</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="str">
-        <v>hanadi joud</v>
-      </c>
-      <c r="C6" t="str">
-        <v>https://cdn.pixabay.com/photo/2023/09/22/07/02/red-8268266_640.jpg</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="str">
-        <v>mohammad</v>
-      </c>
-      <c r="C7" t="str">
-        <v>https://cdn.pixabay.com/photo/2023/10/25/07/29/woman-8339755_640.jpg</v>
-      </c>
-    </row>
     <row r="8">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" t="str">
+        <v>4</v>
       </c>
       <c r="B8" t="str">
-        <v>ahmad sayed</v>
+        <v>zouzou</v>
       </c>
       <c r="C8" t="str">
-        <v>https://cdn.pixabay.com/photo/2023/10/25/07/29/woman-8339755_640.jpg</v>
+        <v>https://cdn.pixabay.com/photo/2020/04/18/16/21/online-5059831_640.jpg</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" t="str">
-        <v>ahmad</v>
+        <v>hasan</v>
       </c>
       <c r="C9" t="str">
-        <v>https://cdn.pixabay.com/photo/2023/10/25/07/29/woman-8339755_640.jpg</v>
+        <v>https://cdn.pixabay.com/photo/2016/12/28/11/36/book-1935944_640.jpg</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10" t="str">
-        <v>abd el naser</v>
+        <v>rouba</v>
       </c>
       <c r="C10" t="str">
-        <v>https://cdn.pixabay.com/photo/2023/10/25/07/29/woman-8339755_640.jpg</v>
+        <v>https://cdn.pixabay.com/photo/2019/12/29/19/40/online-4727942_640.jpg</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B11" t="str">
-        <v>joud joud</v>
+        <v>jad</v>
       </c>
       <c r="C11" t="str">
-        <v>https://cdn.pixabay.com/photo/2018/06/27/07/45/college-student-3500990_640.jpg</v>
+        <v>https://cdn.pixabay.com/photo/2019/12/29/19/40/online-4727942_640.jpg</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:C11"/>
